--- a/public/import/templates/导入模板_备品备件表.xlsx
+++ b/public/import/templates/导入模板_备品备件表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>备件编码(必填)</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>备件型号(必填)</t>
+  </si>
+  <si>
+    <t>仓库编码(必填)</t>
+  </si>
+  <si>
+    <t>货区编码(允许为空)</t>
   </si>
   <si>
     <t>单位(必填)</t>
@@ -1236,23 +1242,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="19.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="19.1416666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="4" max="6" width="19.1416666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" ht="15" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,6 +1280,12 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
